--- a/Result/checkH.xlsx
+++ b/Result/checkH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AE46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,80 +501,90 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>recommend</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>recommend2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>量增</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
@@ -643,85 +653,95 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>140.5</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>鈺齊-KY</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>3.56</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>68.36</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>18.91</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>31.29</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28239</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>鞋99.51%、其他0.49% (2023年)</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>鈺齊-KY-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>557579852.0</t>
         </is>
@@ -790,85 +810,95 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>140.5</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>4.46</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>鈺齊-KY</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>3.56</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>68.36</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>18.91</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>31.29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28239</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>鞋99.51%、其他0.49% (2023年)</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>鈺齊-KY-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>889448148.0</t>
         </is>
@@ -937,85 +967,95 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-01-14 00:00:00</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐ShowTime</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>58.6</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>5.97</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>北基</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>油電燃氣業</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>3.41</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>15.63</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>7.95</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>40.98</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>29.34</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>21642</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>無鉛汽油52.63%、高級柴油20.42%、無鉛汽油10.87%、無鉛汽油5.77%、其他5.26%、洗車1.53%、儲能產品1.26%、客房及餐飲0.99%、電動巴士0.66%、副油品0.54%、車輛檢查0.08% (2023年)</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>北基-油電燃氣業-上櫃</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>290355.0</t>
         </is>
@@ -1084,85 +1124,95 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-01-07 00:00:00</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22.0</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>4.76</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>保銳</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>5.79</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>1341</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>電源供應器48.86%、其他44.45%、電腦機殼6.69% (2023年)</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>保銳-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8537.0</t>
         </is>
@@ -1231,85 +1281,95 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-01-21 00:00:00</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>159.5</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>-3.33</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>-2.45</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>意德士科技</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>1.88</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>40.81</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>6.81</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>30.38</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>4028</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>半導體零組件89.91%、維修9.78%、其他0.32% (2023年)</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>意德士科技-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>13485.0</t>
         </is>
@@ -1378,85 +1438,95 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2025-01-10 00:00:00</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>698.0</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>-0.99</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>-0.57</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>康霈*</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>705</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>63.42</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>32.55</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>107100</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>孅甘紅膠囊(包/盒)51.08%、黃金組合甘甘好膠囊47.89%、孅甘紅膠囊(包)1.03% (2023年)</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>康霈*-生技醫療業-上市</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>1219642091.0</t>
         </is>
@@ -1525,85 +1595,95 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2025-01-13 00:00:00</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>495.0</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>3.12</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>來億-KY</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>480</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>92.54</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>37.29</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>89.51</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>123453</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>運動鞋73.13%、休閒鞋26.85%、其他0.03% (2023年)</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>來億-KY-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>432573012.0</t>
         </is>
@@ -1672,85 +1752,95 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-01-03 00:00:00</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>289.0</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>2.12</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>2.3</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>永道-KY</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>77.49</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15.36</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>30.1</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>40.14</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>21478</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>RFID 電子標籤99.31%、其他0.69% (2023年)</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>永道-KY-通信網路業-上市</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>-15728981.0</t>
         </is>
@@ -1819,85 +1909,95 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>68.5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>9.6</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>鑫傳</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>文化創意業</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>5.57</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27.09</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>6.48</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>16.0</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>52.03</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>1932</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>廣告46.94%、商品銷售28.12%、節目製作24.68%、其他0.26% (2023年)</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>鑫傳-文化創意業-上櫃</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>3778.0</t>
         </is>
@@ -1966,85 +2066,95 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2025-01-13 00:00:00</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>260.0</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>6.12</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>朋億*</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>58.71</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>36.9</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>16.34</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>59.92</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>19794</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>高科技產業製程供應系統設備62.20%、高科技產業製程供應系統設備34.63%、其他3.17% (2023年)</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>朋億*-其他電子業-上櫃</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>2271312.0</t>
         </is>
@@ -2113,85 +2223,95 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2025-01-13 00:00:00</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>260.0</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>6.12</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>7.88</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>朋億*</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>58.71</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>36.9</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>16.34</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>59.92</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>19794</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>高科技產業製程供應系統設備62.20%、高科技產業製程供應系統設備34.63%、其他3.17% (2023年)</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>朋億*-其他電子業-上櫃</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1250214.0</t>
         </is>
@@ -2260,85 +2380,95 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2024-12-26 00:00:00</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>163.0</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>1.56</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>醫揚</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>3.99</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>38.25</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>7.35</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>34.53</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>99.19</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>6295</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>醫療用電腦及其配件98.54%、其他1.46% (2023年)</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>醫揚-生技醫療業-上櫃</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>15972.0</t>
         </is>
@@ -2407,85 +2537,95 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2025-01-08 00:00:00</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>154.0</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>宏觀</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>47.34</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>9.39</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>64.71</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>4776</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>射頻晶片91.93%、委託設計服務8.07% (2023年)</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>宏觀-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>212848.0</t>
         </is>
@@ -2554,85 +2694,95 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2025-01-09 00:00:00</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>59.5</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>3.3</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>興能高</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>15.99</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>3.54</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>5144</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>電池組93.08%、電池芯6.92% (2023年)</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>興能高-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>15467217058.0</t>
         </is>
@@ -2701,85 +2851,95 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>224.0</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>2.39</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>55.07</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>17.46</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>44.18</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>16863</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備70.61%、半導體自動化設備25.54%、液晶面板自動化設備3.85% (2023年)</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>2795613092.0</t>
         </is>
@@ -2848,85 +3008,95 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>78.0</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>良維</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>39.19</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>13.57</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>17.22</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>12382</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>電源傳輸線組82.40%、訊號傳輸線組8.82%、電源, 訊號傳輸及車用線材6.68%、充電器轉接頭與一體式充電器2.07%、其他0.03% (2023年)</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>良維-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>315954.0</t>
         </is>
@@ -2995,85 +3165,95 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2025-01-13 00:00:00</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>56.8</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>5.58</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>雷科</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>2.64</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>24.11</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>28.4</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>4526</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>SMT與雷射設備60.68%、捲裝材料38.32%、其他1.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>雷科-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>75308.0</t>
         </is>
@@ -3142,85 +3322,95 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>43.6</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>立敦</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>2.4</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>25.23</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>7.54</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>15.97</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>6565</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>化成鋁箔71.92%、電蝕鋁箔27.77%、鋁箔加工0.31% (2023年)</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>立敦-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>1206926.0</t>
         </is>
@@ -3289,85 +3479,95 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2025-01-21 00:00:00</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>45.3</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>-0.11</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>浪凡</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>數位雲端</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>0.88</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>17.99</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>8.98</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>45.76</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>36.07</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>3522</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>線上直播平台99.98%、連接器,連接線及遙控器0.02% (2023年)</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>浪凡-數位雲端-上市</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>42770753.0</t>
         </is>
@@ -3436,85 +3636,95 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2024-12-31 00:00:00</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>3.52</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>亞翔</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>3.59</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>57.00</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>70.44</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>14.09</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>58251</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>其他72.12%、無塵室工程20.22%、機電工程4.32%、製程管路工程3.35% (2023年)</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>亞翔-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>3839446142.0</t>
         </is>
@@ -3583,85 +3793,95 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>175.0</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>2.34</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>創惟</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>20.29</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>9.72</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>81.4</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>15869</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>積體電路(IC)晶片99.63%、其他0.37% (2023年)</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>創惟-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>-233231.0</t>
         </is>
@@ -3730,85 +3950,95 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2025-01-21 00:00:00</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>11.15</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>-6.3</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>-1.76</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>寶得利</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>4.68</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>0.6</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>21.51</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>1592</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>商品銷售86.22%、餐飲服務13.46%、空運承攬服務0.32% (2023年)</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>寶得利-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>10372.0</t>
         </is>
@@ -3877,85 +4107,95 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2025-01-09 00:00:00</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>225.0</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>-0.22</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>-0.22</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>達興材料</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>1.82</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>30.22</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>10.45</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>46.3</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>60.87</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>23111</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>顯示器材料93.05%、半導體材料及關鍵原材料6.95% (2023年)</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>達興材料-光電業-上市</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>1547709368.0</t>
         </is>
@@ -4024,85 +4264,95 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>242.5</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>8.26</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>22.52</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>6.71</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>63.65</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>34154</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>光通訊主動元件模組92.50%、晶粒4.58%、其他2.92% (2023年)</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>22500425.0</t>
         </is>
@@ -4171,85 +4421,95 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>33.0</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>2.48</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>事欣科</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>1.21</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>19.95</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>8.96</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>3246</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>航太及國防工業75.60%、博奕及工業電腦24.40% (2023年)</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>事欣科-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>183473960.0</t>
         </is>
@@ -4318,85 +4578,95 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>37.9</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>3.84</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>聯光通</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>9.78</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>39.48</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t>3993</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>系統工程及服務61.79%、光纖電纜及配合材料34.74%、其他3.22%、數據產品傳輸設備0.25% (2023年)</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
         <is>
           <t>聯光通-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>962748.0</t>
         </is>
@@ -4465,85 +4735,95 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>37.9</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>3.84</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>5.57</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>聯光通</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>9.78</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>39.48</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
         <is>
           <t>3993</t>
         </is>
       </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>系統工程及服務61.79%、光纖電纜及配合材料34.74%、其他3.22%、數據產品傳輸設備0.25% (2023年)</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AD28" t="inlineStr">
         <is>
           <t>聯光通-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
         <is>
           <t>-22618.0</t>
         </is>
@@ -4612,85 +4892,95 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大探底有撐ShowTime</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>66.7</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>7.58</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>華廣</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>30.16</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="Y29" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="AA29" t="inlineStr">
         <is>
           <t>32.55</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AB29" t="inlineStr">
         <is>
           <t>4071</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>血糖檢測試片69.75%、其他18.19%、血糖檢測儀套件12.06% (2023年)</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AD29" t="inlineStr">
         <is>
           <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AE29" t="inlineStr">
         <is>
           <t>35769724.0</t>
         </is>
@@ -4759,85 +5049,95 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2025-01-15 00:00:00</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>34.55</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>6.31</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>聿新科</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>16.42</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="Y30" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>18.38</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>99.19</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AB30" t="inlineStr">
         <is>
           <t>1829</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>居家醫療檢測試紙59.22%、生醫保養品及代工32.79%、居家醫療檢測儀器7.88%、其他0.11% (2023年)</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AD30" t="inlineStr">
         <is>
           <t>聿新科-生技醫療業-上櫃</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AE30" t="inlineStr">
         <is>
           <t>20778.0</t>
         </is>
@@ -4906,85 +5206,95 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2025-01-17 00:00:00</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>13.1</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>連展投控</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>6.01</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="Y31" t="inlineStr">
         <is>
           <t>6.93</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="AA31" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="AB31" t="inlineStr">
         <is>
           <t>3763</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>其他38.97%、電腦產品32.74%、通訊產品28.29% (2023年)</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>連展投控-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AE31" t="inlineStr">
         <is>
           <t>197220.0</t>
         </is>
@@ -5053,85 +5363,95 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2025-01-21 00:00:00</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>62.7</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>宏致</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>42.21</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="Y32" t="inlineStr">
         <is>
           <t>19.75</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="Z32" t="inlineStr">
         <is>
           <t>82.5</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="AA32" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AB32" t="inlineStr">
         <is>
           <t>8896</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AE32" t="inlineStr">
         <is>
           <t>2433411209.0</t>
         </is>
@@ -5200,85 +5520,95 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2025-01-21 00:00:00</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>62.7</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>宏致</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>42.21</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="Y33" t="inlineStr">
         <is>
           <t>19.75</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="Z33" t="inlineStr">
         <is>
           <t>82.5</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="AA33" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AB33" t="inlineStr">
         <is>
           <t>8896</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AD33" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AE33" t="inlineStr">
         <is>
           <t>1184586333.0</t>
         </is>
@@ -5347,85 +5677,95 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2025-01-03 00:00:00</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>453.0</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>7.86</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>昇達科</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>40.78</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>10.02</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>67.31</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="AA34" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AB34" t="inlineStr">
         <is>
           <t>28930</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>微波及毫米波49.15%、射頻產品32.07%、通訊網路工程服務18.79% (2023年)</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
+      <c r="AD34" t="inlineStr">
         <is>
           <t>昇達科-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AE34" t="inlineStr">
         <is>
           <t>7322770.0</t>
         </is>
@@ -5494,85 +5834,95 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2025-01-03 00:00:00</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>453.0</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>7.86</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>9.29</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>昇達科</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>40.78</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>10.02</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>67.31</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>28930</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AC35" t="inlineStr">
         <is>
           <t>微波及毫米波49.15%、射頻產品32.07%、通訊網路工程服務18.79% (2023年)</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AD35" t="inlineStr">
         <is>
           <t>昇達科-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AE35" t="inlineStr">
         <is>
           <t>2066857.0</t>
         </is>
@@ -5641,85 +5991,95 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>--ShowTime</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>22.65</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>5.84</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>杭特</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="W36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>15.78</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
+      <c r="Y36" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="AA36" t="inlineStr">
         <is>
           <t>96.61</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="AB36" t="inlineStr">
         <is>
           <t>817</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AC36" t="inlineStr">
         <is>
           <t>網路攝影機100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AD36" t="inlineStr">
         <is>
           <t>杭特-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AE36" t="inlineStr">
         <is>
           <t>15143.0</t>
         </is>
@@ -5788,85 +6148,95 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2025-01-08 00:00:00</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>35.8</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>太普高</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>13.66</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
+      <c r="Y37" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="Z37" t="inlineStr">
         <is>
           <t>13.11</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="AA37" t="inlineStr">
         <is>
           <t>183.9</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AB37" t="inlineStr">
         <is>
           <t>3308</t>
         </is>
       </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AC37" t="inlineStr">
         <is>
           <t>印刷版材67.70%、不動產代銷21.57%、其他10.73% (2023年)</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AD37" t="inlineStr">
         <is>
           <t>太普高-其他-上櫃</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AE37" t="inlineStr">
         <is>
           <t>12153.0</t>
         </is>
@@ -5935,85 +6305,95 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2024-12-19 00:00:00</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>68.9</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>9.37</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>欣銓</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t>4.79</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="X38" t="inlineStr">
         <is>
           <t>37.80</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
+      <c r="Y38" t="inlineStr">
         <is>
           <t>7.11</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="Z38" t="inlineStr">
         <is>
           <t>14.95</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="AA38" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AB38" t="inlineStr">
         <is>
           <t>33773</t>
         </is>
       </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AC38" t="inlineStr">
         <is>
           <t>晶圓測試73.30%、成品測試26.27%、其他0.43% (2023年)</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
+      <c r="AD38" t="inlineStr">
         <is>
           <t>欣銓-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AE38" t="inlineStr">
         <is>
           <t>2515998.0</t>
         </is>
@@ -6082,85 +6462,95 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2024-12-23 00:00:00</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>169.5</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>波若威</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t>2.12</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="X39" t="inlineStr">
         <is>
           <t>33.20</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
+      <c r="Y39" t="inlineStr">
         <is>
           <t>5.67</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t>37.75</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="AA39" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AB39" t="inlineStr">
         <is>
           <t>13652</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AC39" t="inlineStr">
         <is>
           <t>光纖連接產品(OIN Product)49.92%、光能量分合產品22.24%、光波長分合產品21.23%、光能量放大產品6.33%、其他0.28% (2023年)</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
+      <c r="AD39" t="inlineStr">
         <is>
           <t>波若威-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
+      <c r="AE39" t="inlineStr">
         <is>
           <t>7920315.0</t>
         </is>
@@ -6229,85 +6619,95 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2024-12-23 00:00:00</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>169.5</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>3.35</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>波若威</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="W40" t="inlineStr">
         <is>
           <t>2.12</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="X40" t="inlineStr">
         <is>
           <t>33.20</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
+      <c r="Y40" t="inlineStr">
         <is>
           <t>5.67</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="Z40" t="inlineStr">
         <is>
           <t>37.75</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="AA40" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="AB40" t="inlineStr">
         <is>
           <t>13652</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AC40" t="inlineStr">
         <is>
           <t>光纖連接產品(OIN Product)49.92%、光能量分合產品22.24%、光波長分合產品21.23%、光能量放大產品6.33%、其他0.28% (2023年)</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
+      <c r="AD40" t="inlineStr">
         <is>
           <t>波若威-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
+      <c r="AE40" t="inlineStr">
         <is>
           <t>-1352689.0</t>
         </is>
@@ -6376,85 +6776,95 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-12-16 00:00:00</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>119.5</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>3.02</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>神基</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="W41" t="inlineStr">
         <is>
           <t>4.18</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
+      <c r="X41" t="inlineStr">
         <is>
           <t>36.80</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
+      <c r="Y41" t="inlineStr">
         <is>
           <t>14.85</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr">
+      <c r="Z41" t="inlineStr">
         <is>
           <t>17.29</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="AA41" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="AB41" t="inlineStr">
         <is>
           <t>73517</t>
         </is>
       </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AC41" t="inlineStr">
         <is>
           <t>電子元器件52.18%、機構件38.99%、航太扣件8.83% (2023年)</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
+      <c r="AD41" t="inlineStr">
         <is>
           <t>神基-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="AE41" t="inlineStr">
         <is>
           <t>765320369.0</t>
         </is>
@@ -6523,85 +6933,95 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2025-01-06 00:00:00</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>30.8</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>宏太-KY</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>居家生活</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="X42" t="inlineStr">
         <is>
           <t>10.57</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
+      <c r="Y42" t="inlineStr">
         <is>
           <t>1.6</t>
         </is>
       </c>
-      <c r="X42" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y42" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>95.04</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
+      <c r="AB42" t="inlineStr">
         <is>
           <t>1603</t>
         </is>
       </c>
-      <c r="AA42" t="inlineStr">
+      <c r="AC42" t="inlineStr">
         <is>
           <t>嬰幼兒產品100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB42" t="inlineStr">
+      <c r="AD42" t="inlineStr">
         <is>
           <t>宏太-KY-居家生活-上櫃</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
+      <c r="AE42" t="inlineStr">
         <is>
           <t>246.0</t>
         </is>
@@ -6670,85 +7090,95 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2025-01-06 00:00:00</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>17.1</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>-8.31</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>-7.32</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>新建</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>建材營造</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="W43" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
+      <c r="X43" t="inlineStr">
         <is>
           <t>7.43</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr">
+      <c r="Y43" t="inlineStr">
         <is>
           <t>10.21</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr">
+      <c r="Z43" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="AA43" t="inlineStr">
         <is>
           <t>28.23</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="AB43" t="inlineStr">
         <is>
           <t>3869</t>
         </is>
       </c>
-      <c r="AA43" t="inlineStr">
+      <c r="AC43" t="inlineStr">
         <is>
           <t>土木工程62.51%、建築工程37.45%、其他0.04% (2023年)</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
+      <c r="AD43" t="inlineStr">
         <is>
           <t>新建-建材營造-上市</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
+      <c r="AE43" t="inlineStr">
         <is>
           <t>164832086.0</t>
         </is>
@@ -6817,85 +7247,95 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>59.2</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>宏達電</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
+      <c r="X44" t="inlineStr">
         <is>
           <t>26.37</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr">
+      <c r="Y44" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr">
+      <c r="Z44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="AA44" t="inlineStr">
         <is>
           <t>40.14</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
+      <c r="AB44" t="inlineStr">
         <is>
           <t>49289</t>
         </is>
       </c>
-      <c r="AA44" t="inlineStr">
+      <c r="AC44" t="inlineStr">
         <is>
           <t>虛擬實境及5G,智慧型手機和100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
+      <c r="AD44" t="inlineStr">
         <is>
           <t>宏達電-通信網路業-上市</t>
         </is>
       </c>
-      <c r="AC44" t="inlineStr">
+      <c r="AE44" t="inlineStr">
         <is>
           <t>16618070150.0</t>
         </is>
@@ -6964,85 +7404,95 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2025-01-17 00:00:00</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>102.5</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>-1.44</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>立隆電</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="W45" t="inlineStr">
         <is>
           <t>2.73</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr">
+      <c r="X45" t="inlineStr">
         <is>
           <t>47.27</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
+      <c r="Y45" t="inlineStr">
         <is>
           <t>16.95</t>
         </is>
       </c>
-      <c r="X45" t="inlineStr">
+      <c r="Z45" t="inlineStr">
         <is>
           <t>15.84</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="AA45" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
+      <c r="AB45" t="inlineStr">
         <is>
           <t>16885</t>
         </is>
       </c>
-      <c r="AA45" t="inlineStr">
+      <c r="AC45" t="inlineStr">
         <is>
           <t>鋁質電解電容器62.55%、化成鋁箔25.98%、電蝕鋁箔11.34%、鋁箔加工0.13% (2023年)</t>
         </is>
       </c>
-      <c r="AB45" t="inlineStr">
+      <c r="AD45" t="inlineStr">
         <is>
           <t>立隆電-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr">
+      <c r="AE45" t="inlineStr">
         <is>
           <t>8559054542.0</t>
         </is>
@@ -7111,85 +7561,95 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2024-12-30 00:00:00</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>31.45</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>2.78</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>岱宇</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="W46" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
+      <c r="X46" t="inlineStr">
         <is>
           <t>26.97</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
+      <c r="Y46" t="inlineStr">
         <is>
           <t>10.03</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr">
+      <c r="Z46" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="AA46" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AB46" t="inlineStr">
         <is>
           <t>5257</t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
         <is>
           <t>電動跑步機52.33%、其他16.86%、橢圓機14.11%、健身車9.40%、家具7.30% (2023年)</t>
         </is>
       </c>
-      <c r="AB46" t="inlineStr">
+      <c r="AD46" t="inlineStr">
         <is>
           <t>岱宇-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AE46" t="inlineStr">
         <is>
           <t>44836511.0</t>
         </is>
